--- a/data_original/us-gdp-growth.xlsx
+++ b/data_original/us-gdp-growth.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle_\Documents\GitHub\ser494_22fc_project\data_original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00AD64BE-E97C-47EA-886A-66A5D66BED0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2A471-8A50-4045-AF20-228D698DC9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CC7704B-0ACD-4F9A-8665-F98CEECBF49D}"/>
   </bookViews>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>United States</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>NY.GDP.MKTP.KD.ZG</t>
-  </si>
-  <si>
     <t>Data Source</t>
   </si>
   <si>
@@ -60,18 +51,6 @@
   </si>
   <si>
     <t>Country Name</t>
-  </si>
-  <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>Indicator Name</t>
-  </si>
-  <si>
-    <t>Indicator Code</t>
-  </si>
-  <si>
-    <t>1999</t>
   </si>
   <si>
     <t>2000</t>
@@ -491,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580A99EB-2C70-4598-A983-17ADE4EAFC7E}">
-  <dimension ref="A1:BN6"/>
+  <dimension ref="A1:BN11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,172 +485,185 @@
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>1999</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44820</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.7944990450000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.0771594789999996</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.95433872900000005</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.695942923</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.7962091010000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.8525526010000002</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.48322032</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.7828106259999998</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.010507552</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.12218844299999999</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-2.5998883500000001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2.7088566940000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.5498949500000001</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2.2806876030000001</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1.841875395</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2.2877759329999998</v>
+      </c>
+      <c r="R2" s="2">
+        <v>2.7063695820000002</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1.6674720759999999</v>
+      </c>
+      <c r="T2" s="2">
+        <v>2.2556804810000002</v>
+      </c>
+      <c r="U2" s="2">
+        <v>2.918856897</v>
+      </c>
+      <c r="V2" s="2">
+        <v>2.2888698679999999</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44820</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>4.7944990450000002</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4.0771594789999996</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.95433872900000005</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1.695942923</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2.7962091010000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3.8525526010000002</v>
-      </c>
-      <c r="L6" s="2">
-        <v>3.48322032</v>
-      </c>
-      <c r="M6" s="2">
-        <v>2.7828106259999998</v>
-      </c>
-      <c r="N6" s="2">
-        <v>2.010507552</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.12218844299999999</v>
-      </c>
-      <c r="P6" s="2">
-        <v>-2.5998883500000001</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>2.7088566940000001</v>
-      </c>
-      <c r="R6" s="2">
-        <v>1.5498949500000001</v>
-      </c>
-      <c r="S6" s="2">
-        <v>2.2806876030000001</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1.841875395</v>
-      </c>
-      <c r="U6" s="2">
-        <v>2.2877759329999998</v>
-      </c>
-      <c r="V6" s="2">
-        <v>2.7063695820000002</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1.6674720759999999</v>
-      </c>
-      <c r="X6" s="2">
-        <v>2.2556804810000002</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>2.918856897</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>2.2888698679999999</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
@@ -713,6 +705,58 @@
       <c r="BM6" s="2"/>
       <c r="BN6" s="2"/>
     </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_original/us-gdp-growth.xlsx
+++ b/data_original/us-gdp-growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle_\Documents\GitHub\ser494_22fc_project\data_original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2A471-8A50-4045-AF20-228D698DC9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF82AB18-8FC6-4A70-B9FD-FDF750A3B240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CC7704B-0ACD-4F9A-8665-F98CEECBF49D}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Last Updated Date</t>
   </si>
   <si>
-    <t>Country Name</t>
-  </si>
-  <si>
     <t>2000</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>2019</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -470,82 +470,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580A99EB-2C70-4598-A983-17ADE4EAFC7E}">
-  <dimension ref="A1:BN11"/>
+  <dimension ref="A1:BN13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1">
-        <v>1999</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -553,68 +490,68 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>4.7944990450000002</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.0771594789999996</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.95433872900000005</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.695942923</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2.7962091010000001</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3.8525526010000002</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3.48322032</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2.7828106259999998</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2.010507552</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.12218844299999999</v>
-      </c>
-      <c r="L2" s="2">
-        <v>-2.5998883500000001</v>
-      </c>
-      <c r="M2" s="2">
-        <v>2.7088566940000001</v>
-      </c>
-      <c r="N2" s="2">
-        <v>1.5498949500000001</v>
-      </c>
-      <c r="O2" s="2">
-        <v>2.2806876030000001</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1.841875395</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2.2877759329999998</v>
-      </c>
-      <c r="R2" s="2">
-        <v>2.7063695820000002</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1.6674720759999999</v>
-      </c>
-      <c r="T2" s="2">
-        <v>2.2556804810000002</v>
-      </c>
-      <c r="U2" s="2">
-        <v>2.918856897</v>
-      </c>
-      <c r="V2" s="2">
-        <v>2.2888698679999999</v>
+      <c r="B2">
+        <v>1999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -622,25 +559,88 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3" s="2">
+        <v>4.7944990450000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.0771594789999996</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.95433872900000005</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.695942923</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.7962091010000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3.8525526010000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.48322032</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.7828106259999998</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.010507552</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.12218844299999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-2.5998883500000001</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.7088566940000001</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.5498949500000001</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2.2806876030000001</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.841875395</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2.2877759329999998</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2.7063695820000002</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1.6674720759999999</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2.2556804810000002</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2.918856897</v>
+      </c>
+      <c r="V3" s="2">
+        <v>2.2888698679999999</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>44820</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -705,6 +705,32 @@
       <c r="BM6" s="2"/>
       <c r="BN6" s="2"/>
     </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -757,6 +783,29 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
